--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_发现组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -286,12 +286,16 @@
     <t>邵明基</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>李敖</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -929,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="11" customWidth="1"/>
@@ -959,7 +963,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1068,7 +1072,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="49.5">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1118,7 +1122,7 @@
       <c r="S3" s="29"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="49.5">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1168,7 +1172,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1210,7 +1214,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="49.5">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1260,7 +1264,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="82.5">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1310,7 +1314,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="49.5">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1360,7 +1364,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1406,7 +1410,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="55.5" customHeight="1">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="M10" s="25" t="s">
         <v>69</v>
@@ -1456,7 +1460,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="38.25" customHeight="1">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1488,17 +1492,25 @@
       <c r="K11" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="25"/>
+      <c r="L11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="17">
+        <v>42467</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="26"/>
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="35.25" customHeight="1">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1548,7 +1560,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1598,7 +1610,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1648,7 +1660,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="33">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1690,7 +1702,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1732,7 +1744,7 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1765,7 +1777,7 @@
         <v>21</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>69</v>
@@ -1782,7 +1794,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1804,7 +1816,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1826,7 +1838,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1848,7 +1860,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1870,7 +1882,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1892,7 +1904,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1914,7 +1926,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1936,7 +1948,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1958,7 +1970,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1980,7 +1992,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2002,7 +2014,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2024,7 +2036,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2046,7 +2058,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2068,7 +2080,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2090,7 +2102,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2112,7 +2124,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2134,7 +2146,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2156,7 +2168,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2178,7 +2190,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2200,7 +2212,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2222,7 +2234,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2244,7 +2256,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2266,7 +2278,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2288,7 +2300,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2310,7 +2322,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2332,7 +2344,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2354,7 +2366,7 @@
       <c r="S43" s="29"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2376,7 +2388,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2398,7 +2410,7 @@
       <c r="S45" s="29"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2420,7 +2432,7 @@
       <c r="S46" s="29"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2442,7 +2454,7 @@
       <c r="S47" s="29"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2464,7 +2476,7 @@
       <c r="S48" s="29"/>
       <c r="T48" s="30"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2486,7 +2498,7 @@
       <c r="S49" s="29"/>
       <c r="T49" s="30"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2508,7 +2520,7 @@
       <c r="S50" s="29"/>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2530,7 +2542,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2552,7 +2564,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2574,7 +2586,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="14"/>
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
@@ -2596,7 +2608,7 @@
       <c r="S54" s="29"/>
       <c r="T54" s="30"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -2618,7 +2630,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="30"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="19"/>
@@ -2640,7 +2652,7 @@
       <c r="S56" s="20"/>
       <c r="T56" s="30"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2661,7 +2673,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2682,7 +2694,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2703,7 +2715,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2724,7 +2736,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2745,7 +2757,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2766,7 +2778,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2787,7 +2799,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2808,7 +2820,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2829,7 +2841,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2850,7 +2862,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2871,7 +2883,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2892,7 +2904,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -2913,7 +2925,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -2934,7 +2946,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -2955,7 +2967,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -2976,7 +2988,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -2997,7 +3009,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -3018,7 +3030,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -3039,7 +3051,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -3060,7 +3072,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -3081,7 +3093,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -3102,7 +3114,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -3123,7 +3135,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -3144,7 +3156,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -3165,7 +3177,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -3186,7 +3198,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -3207,7 +3219,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -3228,7 +3240,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -3249,7 +3261,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -3270,7 +3282,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -3291,7 +3303,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -3312,7 +3324,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -3333,7 +3345,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -3354,7 +3366,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -3375,7 +3387,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -3396,7 +3408,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -3417,7 +3429,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -3438,7 +3450,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -3459,7 +3471,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -3480,7 +3492,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3501,7 +3513,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3522,7 +3534,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3543,7 +3555,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3564,7 +3576,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3585,7 +3597,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3606,7 +3618,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3627,7 +3639,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3648,7 +3660,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3669,7 +3681,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3690,7 +3702,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3711,7 +3723,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3732,7 +3744,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3753,7 +3765,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3774,7 +3786,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3795,7 +3807,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3816,7 +3828,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3837,7 +3849,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5">
+    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3858,7 +3870,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5">
+    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3879,7 +3891,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5">
+    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -3900,7 +3912,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5">
+    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -3921,7 +3933,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -3942,7 +3954,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -3963,7 +3975,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -3984,7 +3996,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -4005,7 +4017,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -4026,7 +4038,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -4047,7 +4059,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -4068,7 +4080,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -4089,7 +4101,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -4110,7 +4122,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -4131,7 +4143,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -4152,7 +4164,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -4173,7 +4185,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -4194,7 +4206,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -4215,7 +4227,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -4236,7 +4248,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -4257,7 +4269,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -4278,7 +4290,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -4299,7 +4311,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -4320,7 +4332,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -4341,7 +4353,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -4362,7 +4374,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -4383,7 +4395,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -4404,7 +4416,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -4425,7 +4437,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -4446,7 +4458,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -4467,7 +4479,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -4488,7 +4500,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4509,7 +4521,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4530,7 +4542,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4551,7 +4563,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4572,7 +4584,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4593,7 +4605,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4614,7 +4626,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4635,7 +4647,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4656,7 +4668,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4677,7 +4689,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4698,7 +4710,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4719,7 +4731,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4740,7 +4752,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4761,7 +4773,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4782,7 +4794,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4803,7 +4815,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4824,7 +4836,7 @@
       <c r="R160" s="22"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4845,7 +4857,7 @@
       <c r="R161" s="22"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4866,7 +4878,7 @@
       <c r="R162" s="22"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4887,7 +4899,7 @@
       <c r="R163" s="22"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -4908,7 +4920,7 @@
       <c r="R164" s="22"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -4929,7 +4941,7 @@
       <c r="R165" s="22"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -4950,7 +4962,7 @@
       <c r="R166" s="22"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -4971,7 +4983,7 @@
       <c r="R167" s="22"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -4992,7 +5004,7 @@
       <c r="R168" s="22"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -5013,7 +5025,7 @@
       <c r="R169" s="22"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -5034,7 +5046,7 @@
       <c r="R170" s="22"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -5055,7 +5067,7 @@
       <c r="R171" s="22"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -5076,7 +5088,7 @@
       <c r="R172" s="22"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -5097,7 +5109,7 @@
       <c r="R173" s="22"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -5118,7 +5130,7 @@
       <c r="R174" s="22"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -5139,7 +5151,7 @@
       <c r="R175" s="22"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -5160,7 +5172,7 @@
       <c r="R176" s="22"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -5181,7 +5193,7 @@
       <c r="R177" s="22"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -5199,7 +5211,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -5217,7 +5229,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -5235,7 +5247,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -5253,7 +5265,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -5271,7 +5283,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -5289,7 +5301,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -5307,7 +5319,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -5325,7 +5337,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -5343,7 +5355,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -5361,7 +5373,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -5379,7 +5391,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -5397,7 +5409,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -5415,7 +5427,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -5433,7 +5445,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -5451,7 +5463,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -5469,7 +5481,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -5487,7 +5499,7 @@
       <c r="O194" s="23"/>
       <c r="S194" s="23"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="22"/>
       <c r="B195" s="23"/>
       <c r="C195" s="22"/>
@@ -5505,7 +5517,7 @@
       <c r="O195" s="23"/>
       <c r="S195" s="23"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="22"/>
       <c r="B196" s="23"/>
       <c r="C196" s="22"/>
@@ -5523,7 +5535,7 @@
       <c r="O196" s="23"/>
       <c r="S196" s="23"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="22"/>
       <c r="B197" s="23"/>
       <c r="C197" s="22"/>
@@ -5541,7 +5553,7 @@
       <c r="O197" s="23"/>
       <c r="S197" s="23"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="22"/>
       <c r="B198" s="23"/>
       <c r="C198" s="22"/>
@@ -5559,7 +5571,7 @@
       <c r="O198" s="23"/>
       <c r="S198" s="23"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="22"/>
       <c r="B199" s="23"/>
       <c r="C199" s="22"/>
@@ -5577,7 +5589,7 @@
       <c r="O199" s="23"/>
       <c r="S199" s="23"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="22"/>
       <c r="B200" s="23"/>
       <c r="C200" s="22"/>
@@ -5595,7 +5607,7 @@
       <c r="O200" s="23"/>
       <c r="S200" s="23"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="22"/>
       <c r="B201" s="23"/>
       <c r="C201" s="22"/>
@@ -5613,7 +5625,7 @@
       <c r="O201" s="23"/>
       <c r="S201" s="23"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="22"/>
       <c r="B202" s="23"/>
       <c r="C202" s="22"/>
@@ -5631,7 +5643,7 @@
       <c r="O202" s="23"/>
       <c r="S202" s="23"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="22"/>
       <c r="B203" s="23"/>
       <c r="C203" s="22"/>
@@ -5649,7 +5661,7 @@
       <c r="O203" s="23"/>
       <c r="S203" s="23"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="22"/>
       <c r="B204" s="23"/>
       <c r="C204" s="22"/>
@@ -5667,7 +5679,7 @@
       <c r="O204" s="23"/>
       <c r="S204" s="23"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="22"/>
       <c r="B205" s="23"/>
       <c r="C205" s="22"/>
@@ -5685,7 +5697,7 @@
       <c r="O205" s="23"/>
       <c r="S205" s="23"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="22"/>
       <c r="B206" s="23"/>
       <c r="C206" s="22"/>
@@ -5703,7 +5715,7 @@
       <c r="O206" s="23"/>
       <c r="S206" s="23"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="22"/>
       <c r="B207" s="23"/>
       <c r="C207" s="22"/>
@@ -5721,7 +5733,7 @@
       <c r="O207" s="23"/>
       <c r="S207" s="23"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="22"/>
       <c r="B208" s="23"/>
       <c r="C208" s="22"/>
@@ -5739,7 +5751,7 @@
       <c r="O208" s="23"/>
       <c r="S208" s="23"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="22"/>
       <c r="B209" s="23"/>
       <c r="C209" s="22"/>
@@ -5757,7 +5769,7 @@
       <c r="O209" s="23"/>
       <c r="S209" s="23"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="22"/>
       <c r="B210" s="23"/>
       <c r="C210" s="22"/>
@@ -5775,7 +5787,7 @@
       <c r="O210" s="23"/>
       <c r="S210" s="23"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="22"/>
       <c r="B211" s="23"/>
       <c r="C211" s="22"/>
@@ -5793,7 +5805,7 @@
       <c r="O211" s="23"/>
       <c r="S211" s="23"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="22"/>
       <c r="B212" s="23"/>
       <c r="C212" s="22"/>
@@ -5819,14 +5831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5837,7 +5849,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -5863,7 +5875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5873,7 +5885,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5883,7 +5895,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5893,7 +5905,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5903,7 +5915,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5913,7 +5925,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5923,7 +5935,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5933,7 +5945,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5943,7 +5955,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5953,7 +5965,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5963,7 +5975,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5973,7 +5985,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5983,7 +5995,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5993,7 +6005,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6003,7 +6015,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6013,7 +6025,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6023,7 +6035,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6033,7 +6045,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_发现组.xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/版本Bug和特性计划及评审表v3.1.0_发现组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="28695" windowHeight="13005"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -294,8 +294,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -933,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="44.25" style="11" customWidth="1"/>
@@ -963,7 +963,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="S3" s="29"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1204,17 +1204,25 @@
       <c r="K5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="25"/>
+      <c r="L5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42467</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="26"/>
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1264,7 +1272,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="82.5">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1314,7 +1322,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1364,7 +1372,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="49.5">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1410,7 +1418,7 @@
       </c>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="55.5" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1460,7 +1468,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="38.25" customHeight="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1510,7 +1518,7 @@
       <c r="S11" s="29"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="35.25" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1560,7 +1568,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1610,7 +1618,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="32.25" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1660,7 +1668,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -1692,17 +1700,25 @@
       <c r="K15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="25"/>
+      <c r="L15" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="17">
+        <v>42467</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -1734,17 +1750,25 @@
       <c r="K16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="25"/>
+      <c r="L16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="17">
+        <v>42467</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>70</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1794,7 +1818,7 @@
       <c r="S17" s="29"/>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14"/>
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
@@ -1816,7 +1840,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14"/>
       <c r="B19" s="18"/>
       <c r="C19" s="16"/>
@@ -1838,7 +1862,7 @@
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14"/>
       <c r="B20" s="18"/>
       <c r="C20" s="16"/>
@@ -1860,7 +1884,7 @@
       <c r="S20" s="29"/>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A21" s="14"/>
       <c r="B21" s="18"/>
       <c r="C21" s="16"/>
@@ -1882,7 +1906,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="18"/>
       <c r="C22" s="16"/>
@@ -1904,7 +1928,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="18"/>
       <c r="C23" s="16"/>
@@ -1926,7 +1950,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="16"/>
@@ -1948,7 +1972,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="18"/>
       <c r="C25" s="16"/>
@@ -1970,7 +1994,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="18"/>
       <c r="C26" s="16"/>
@@ -1992,7 +2016,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="18"/>
       <c r="C27" s="16"/>
@@ -2014,7 +2038,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="18"/>
       <c r="C28" s="16"/>
@@ -2036,7 +2060,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="18"/>
       <c r="C29" s="16"/>
@@ -2058,7 +2082,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="18"/>
       <c r="C30" s="16"/>
@@ -2080,7 +2104,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="18"/>
       <c r="C31" s="16"/>
@@ -2102,7 +2126,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="18"/>
       <c r="C32" s="16"/>
@@ -2124,7 +2148,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="18"/>
       <c r="C33" s="16"/>
@@ -2146,7 +2170,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="18"/>
       <c r="C34" s="16"/>
@@ -2168,7 +2192,7 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A35" s="14"/>
       <c r="B35" s="18"/>
       <c r="C35" s="16"/>
@@ -2190,7 +2214,7 @@
       <c r="S35" s="29"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="14"/>
       <c r="B36" s="18"/>
       <c r="C36" s="16"/>
@@ -2212,7 +2236,7 @@
       <c r="S36" s="29"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A37" s="14"/>
       <c r="B37" s="18"/>
       <c r="C37" s="16"/>
@@ -2234,7 +2258,7 @@
       <c r="S37" s="29"/>
       <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A38" s="14"/>
       <c r="B38" s="18"/>
       <c r="C38" s="16"/>
@@ -2256,7 +2280,7 @@
       <c r="S38" s="29"/>
       <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A39" s="14"/>
       <c r="B39" s="18"/>
       <c r="C39" s="16"/>
@@ -2278,7 +2302,7 @@
       <c r="S39" s="29"/>
       <c r="T39" s="30"/>
     </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A40" s="14"/>
       <c r="B40" s="18"/>
       <c r="C40" s="16"/>
@@ -2300,7 +2324,7 @@
       <c r="S40" s="29"/>
       <c r="T40" s="30"/>
     </row>
-    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A41" s="14"/>
       <c r="B41" s="18"/>
       <c r="C41" s="16"/>
@@ -2322,7 +2346,7 @@
       <c r="S41" s="29"/>
       <c r="T41" s="30"/>
     </row>
-    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A42" s="14"/>
       <c r="B42" s="18"/>
       <c r="C42" s="16"/>
@@ -2344,7 +2368,7 @@
       <c r="S42" s="29"/>
       <c r="T42" s="30"/>
     </row>
-    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A43" s="14"/>
       <c r="B43" s="18"/>
       <c r="C43" s="16"/>
@@ -2366,7 +2390,7 @@
       <c r="S43" s="29"/>
       <c r="T43" s="30"/>
     </row>
-    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A44" s="14"/>
       <c r="B44" s="18"/>
       <c r="C44" s="16"/>
@@ -2388,7 +2412,7 @@
       <c r="S44" s="29"/>
       <c r="T44" s="30"/>
     </row>
-    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A45" s="14"/>
       <c r="B45" s="18"/>
       <c r="C45" s="16"/>
@@ -2410,7 +2434,7 @@
       <c r="S45" s="29"/>
       <c r="T45" s="30"/>
     </row>
-    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A46" s="14"/>
       <c r="B46" s="18"/>
       <c r="C46" s="16"/>
@@ -2432,7 +2456,7 @@
       <c r="S46" s="29"/>
       <c r="T46" s="30"/>
     </row>
-    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A47" s="14"/>
       <c r="B47" s="18"/>
       <c r="C47" s="16"/>
@@ -2454,7 +2478,7 @@
       <c r="S47" s="29"/>
       <c r="T47" s="30"/>
     </row>
-    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A48" s="14"/>
       <c r="B48" s="18"/>
       <c r="C48" s="16"/>
@@ -2476,7 +2500,7 @@
       <c r="S48" s="29"/>
       <c r="T48" s="30"/>
     </row>
-    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A49" s="14"/>
       <c r="B49" s="18"/>
       <c r="C49" s="16"/>
@@ -2498,7 +2522,7 @@
       <c r="S49" s="29"/>
       <c r="T49" s="30"/>
     </row>
-    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
       <c r="C50" s="16"/>
@@ -2520,7 +2544,7 @@
       <c r="S50" s="29"/>
       <c r="T50" s="30"/>
     </row>
-    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
       <c r="C51" s="16"/>
@@ -2542,7 +2566,7 @@
       <c r="S51" s="29"/>
       <c r="T51" s="30"/>
     </row>
-    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A52" s="14"/>
       <c r="B52" s="18"/>
       <c r="C52" s="16"/>
@@ -2564,7 +2588,7 @@
       <c r="S52" s="29"/>
       <c r="T52" s="30"/>
     </row>
-    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A53" s="14"/>
       <c r="B53" s="18"/>
       <c r="C53" s="16"/>
@@ -2586,7 +2610,7 @@
       <c r="S53" s="29"/>
       <c r="T53" s="30"/>
     </row>
-    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A54" s="14"/>
       <c r="B54" s="18"/>
       <c r="C54" s="16"/>
@@ -2608,7 +2632,7 @@
       <c r="S54" s="29"/>
       <c r="T54" s="30"/>
     </row>
-    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A55" s="19"/>
       <c r="B55" s="20"/>
       <c r="C55" s="19"/>
@@ -2630,7 +2654,7 @@
       <c r="S55" s="20"/>
       <c r="T55" s="30"/>
     </row>
-    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A56" s="19"/>
       <c r="B56" s="20"/>
       <c r="C56" s="19"/>
@@ -2652,7 +2676,7 @@
       <c r="S56" s="20"/>
       <c r="T56" s="30"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="16.5">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="22"/>
@@ -2673,7 +2697,7 @@
       <c r="R57" s="22"/>
       <c r="S57" s="23"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="16.5">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="22"/>
@@ -2694,7 +2718,7 @@
       <c r="R58" s="22"/>
       <c r="S58" s="23"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="16.5">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="22"/>
@@ -2715,7 +2739,7 @@
       <c r="R59" s="22"/>
       <c r="S59" s="23"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="22"/>
@@ -2736,7 +2760,7 @@
       <c r="R60" s="22"/>
       <c r="S60" s="23"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="22"/>
@@ -2757,7 +2781,7 @@
       <c r="R61" s="22"/>
       <c r="S61" s="23"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="22"/>
@@ -2778,7 +2802,7 @@
       <c r="R62" s="22"/>
       <c r="S62" s="23"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="22"/>
       <c r="B63" s="23"/>
       <c r="C63" s="22"/>
@@ -2799,7 +2823,7 @@
       <c r="R63" s="22"/>
       <c r="S63" s="23"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="22"/>
       <c r="B64" s="23"/>
       <c r="C64" s="22"/>
@@ -2820,7 +2844,7 @@
       <c r="R64" s="22"/>
       <c r="S64" s="23"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="22"/>
       <c r="B65" s="23"/>
       <c r="C65" s="22"/>
@@ -2841,7 +2865,7 @@
       <c r="R65" s="22"/>
       <c r="S65" s="23"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="22"/>
       <c r="B66" s="23"/>
       <c r="C66" s="22"/>
@@ -2862,7 +2886,7 @@
       <c r="R66" s="22"/>
       <c r="S66" s="23"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="22"/>
       <c r="B67" s="23"/>
       <c r="C67" s="22"/>
@@ -2883,7 +2907,7 @@
       <c r="R67" s="22"/>
       <c r="S67" s="23"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="22"/>
       <c r="B68" s="23"/>
       <c r="C68" s="22"/>
@@ -2904,7 +2928,7 @@
       <c r="R68" s="22"/>
       <c r="S68" s="23"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="22"/>
       <c r="B69" s="23"/>
       <c r="C69" s="22"/>
@@ -2925,7 +2949,7 @@
       <c r="R69" s="22"/>
       <c r="S69" s="23"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="22"/>
       <c r="B70" s="23"/>
       <c r="C70" s="22"/>
@@ -2946,7 +2970,7 @@
       <c r="R70" s="22"/>
       <c r="S70" s="23"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="22"/>
       <c r="B71" s="23"/>
       <c r="C71" s="22"/>
@@ -2967,7 +2991,7 @@
       <c r="R71" s="22"/>
       <c r="S71" s="23"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="22"/>
       <c r="B72" s="23"/>
       <c r="C72" s="22"/>
@@ -2988,7 +3012,7 @@
       <c r="R72" s="22"/>
       <c r="S72" s="23"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="22"/>
       <c r="B73" s="23"/>
       <c r="C73" s="22"/>
@@ -3009,7 +3033,7 @@
       <c r="R73" s="22"/>
       <c r="S73" s="23"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="22"/>
       <c r="B74" s="23"/>
       <c r="C74" s="22"/>
@@ -3030,7 +3054,7 @@
       <c r="R74" s="22"/>
       <c r="S74" s="23"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="22"/>
       <c r="B75" s="23"/>
       <c r="C75" s="22"/>
@@ -3051,7 +3075,7 @@
       <c r="R75" s="22"/>
       <c r="S75" s="23"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="22"/>
       <c r="B76" s="23"/>
       <c r="C76" s="22"/>
@@ -3072,7 +3096,7 @@
       <c r="R76" s="22"/>
       <c r="S76" s="23"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="22"/>
       <c r="B77" s="23"/>
       <c r="C77" s="22"/>
@@ -3093,7 +3117,7 @@
       <c r="R77" s="22"/>
       <c r="S77" s="23"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="22"/>
       <c r="B78" s="23"/>
       <c r="C78" s="22"/>
@@ -3114,7 +3138,7 @@
       <c r="R78" s="22"/>
       <c r="S78" s="23"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="22"/>
       <c r="B79" s="23"/>
       <c r="C79" s="22"/>
@@ -3135,7 +3159,7 @@
       <c r="R79" s="22"/>
       <c r="S79" s="23"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="22"/>
       <c r="B80" s="23"/>
       <c r="C80" s="22"/>
@@ -3156,7 +3180,7 @@
       <c r="R80" s="22"/>
       <c r="S80" s="23"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="22"/>
       <c r="B81" s="23"/>
       <c r="C81" s="22"/>
@@ -3177,7 +3201,7 @@
       <c r="R81" s="22"/>
       <c r="S81" s="23"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="22"/>
       <c r="B82" s="23"/>
       <c r="C82" s="22"/>
@@ -3198,7 +3222,7 @@
       <c r="R82" s="22"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="22"/>
       <c r="B83" s="23"/>
       <c r="C83" s="22"/>
@@ -3219,7 +3243,7 @@
       <c r="R83" s="22"/>
       <c r="S83" s="23"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="22"/>
       <c r="B84" s="23"/>
       <c r="C84" s="22"/>
@@ -3240,7 +3264,7 @@
       <c r="R84" s="22"/>
       <c r="S84" s="23"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="22"/>
       <c r="B85" s="23"/>
       <c r="C85" s="22"/>
@@ -3261,7 +3285,7 @@
       <c r="R85" s="22"/>
       <c r="S85" s="23"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="22"/>
       <c r="B86" s="23"/>
       <c r="C86" s="22"/>
@@ -3282,7 +3306,7 @@
       <c r="R86" s="22"/>
       <c r="S86" s="23"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="22"/>
       <c r="B87" s="23"/>
       <c r="C87" s="22"/>
@@ -3303,7 +3327,7 @@
       <c r="R87" s="22"/>
       <c r="S87" s="23"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="22"/>
       <c r="B88" s="23"/>
       <c r="C88" s="22"/>
@@ -3324,7 +3348,7 @@
       <c r="R88" s="22"/>
       <c r="S88" s="23"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="22"/>
       <c r="B89" s="23"/>
       <c r="C89" s="22"/>
@@ -3345,7 +3369,7 @@
       <c r="R89" s="22"/>
       <c r="S89" s="23"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="22"/>
       <c r="B90" s="23"/>
       <c r="C90" s="22"/>
@@ -3366,7 +3390,7 @@
       <c r="R90" s="22"/>
       <c r="S90" s="23"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="22"/>
       <c r="B91" s="23"/>
       <c r="C91" s="22"/>
@@ -3387,7 +3411,7 @@
       <c r="R91" s="22"/>
       <c r="S91" s="23"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="22"/>
       <c r="B92" s="23"/>
       <c r="C92" s="22"/>
@@ -3408,7 +3432,7 @@
       <c r="R92" s="22"/>
       <c r="S92" s="23"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="22"/>
       <c r="B93" s="23"/>
       <c r="C93" s="22"/>
@@ -3429,7 +3453,7 @@
       <c r="R93" s="22"/>
       <c r="S93" s="23"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="22"/>
       <c r="B94" s="23"/>
       <c r="C94" s="22"/>
@@ -3450,7 +3474,7 @@
       <c r="R94" s="22"/>
       <c r="S94" s="23"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="22"/>
       <c r="B95" s="23"/>
       <c r="C95" s="22"/>
@@ -3471,7 +3495,7 @@
       <c r="R95" s="22"/>
       <c r="S95" s="23"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="22"/>
       <c r="B96" s="23"/>
       <c r="C96" s="22"/>
@@ -3492,7 +3516,7 @@
       <c r="R96" s="22"/>
       <c r="S96" s="23"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="22"/>
       <c r="B97" s="23"/>
       <c r="C97" s="22"/>
@@ -3513,7 +3537,7 @@
       <c r="R97" s="22"/>
       <c r="S97" s="23"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="22"/>
       <c r="B98" s="23"/>
       <c r="C98" s="22"/>
@@ -3534,7 +3558,7 @@
       <c r="R98" s="22"/>
       <c r="S98" s="23"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="22"/>
       <c r="B99" s="23"/>
       <c r="C99" s="22"/>
@@ -3555,7 +3579,7 @@
       <c r="R99" s="22"/>
       <c r="S99" s="23"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="22"/>
       <c r="B100" s="23"/>
       <c r="C100" s="22"/>
@@ -3576,7 +3600,7 @@
       <c r="R100" s="22"/>
       <c r="S100" s="23"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="22"/>
       <c r="B101" s="23"/>
       <c r="C101" s="22"/>
@@ -3597,7 +3621,7 @@
       <c r="R101" s="22"/>
       <c r="S101" s="23"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="22"/>
       <c r="B102" s="23"/>
       <c r="C102" s="22"/>
@@ -3618,7 +3642,7 @@
       <c r="R102" s="22"/>
       <c r="S102" s="23"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="22"/>
       <c r="B103" s="23"/>
       <c r="C103" s="22"/>
@@ -3639,7 +3663,7 @@
       <c r="R103" s="22"/>
       <c r="S103" s="23"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="22"/>
       <c r="B104" s="23"/>
       <c r="C104" s="22"/>
@@ -3660,7 +3684,7 @@
       <c r="R104" s="22"/>
       <c r="S104" s="23"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="22"/>
       <c r="B105" s="23"/>
       <c r="C105" s="22"/>
@@ -3681,7 +3705,7 @@
       <c r="R105" s="22"/>
       <c r="S105" s="23"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="22"/>
       <c r="B106" s="23"/>
       <c r="C106" s="22"/>
@@ -3702,7 +3726,7 @@
       <c r="R106" s="22"/>
       <c r="S106" s="23"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="22"/>
       <c r="B107" s="23"/>
       <c r="C107" s="22"/>
@@ -3723,7 +3747,7 @@
       <c r="R107" s="22"/>
       <c r="S107" s="23"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="22"/>
       <c r="B108" s="23"/>
       <c r="C108" s="22"/>
@@ -3744,7 +3768,7 @@
       <c r="R108" s="22"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="22"/>
       <c r="B109" s="23"/>
       <c r="C109" s="22"/>
@@ -3765,7 +3789,7 @@
       <c r="R109" s="22"/>
       <c r="S109" s="23"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="22"/>
       <c r="B110" s="23"/>
       <c r="C110" s="22"/>
@@ -3786,7 +3810,7 @@
       <c r="R110" s="22"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="22"/>
       <c r="B111" s="23"/>
       <c r="C111" s="22"/>
@@ -3807,7 +3831,7 @@
       <c r="R111" s="22"/>
       <c r="S111" s="23"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="22"/>
       <c r="B112" s="23"/>
       <c r="C112" s="22"/>
@@ -3828,7 +3852,7 @@
       <c r="R112" s="22"/>
       <c r="S112" s="23"/>
     </row>
-    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="22"/>
       <c r="B113" s="23"/>
       <c r="C113" s="22"/>
@@ -3849,7 +3873,7 @@
       <c r="R113" s="22"/>
       <c r="S113" s="23"/>
     </row>
-    <row r="114" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="22"/>
       <c r="B114" s="23"/>
       <c r="C114" s="22"/>
@@ -3870,7 +3894,7 @@
       <c r="R114" s="22"/>
       <c r="S114" s="23"/>
     </row>
-    <row r="115" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="22"/>
       <c r="B115" s="23"/>
       <c r="C115" s="22"/>
@@ -3891,7 +3915,7 @@
       <c r="R115" s="22"/>
       <c r="S115" s="23"/>
     </row>
-    <row r="116" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="22"/>
       <c r="B116" s="23"/>
       <c r="C116" s="22"/>
@@ -3912,7 +3936,7 @@
       <c r="R116" s="22"/>
       <c r="S116" s="23"/>
     </row>
-    <row r="117" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="22"/>
       <c r="B117" s="23"/>
       <c r="C117" s="22"/>
@@ -3933,7 +3957,7 @@
       <c r="R117" s="22"/>
       <c r="S117" s="23"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="22"/>
       <c r="B118" s="23"/>
       <c r="C118" s="22"/>
@@ -3954,7 +3978,7 @@
       <c r="R118" s="22"/>
       <c r="S118" s="23"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="22"/>
       <c r="B119" s="23"/>
       <c r="C119" s="22"/>
@@ -3975,7 +3999,7 @@
       <c r="R119" s="22"/>
       <c r="S119" s="23"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="22"/>
       <c r="B120" s="23"/>
       <c r="C120" s="22"/>
@@ -3996,7 +4020,7 @@
       <c r="R120" s="22"/>
       <c r="S120" s="23"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="22"/>
       <c r="B121" s="23"/>
       <c r="C121" s="22"/>
@@ -4017,7 +4041,7 @@
       <c r="R121" s="22"/>
       <c r="S121" s="23"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="22"/>
       <c r="B122" s="23"/>
       <c r="C122" s="22"/>
@@ -4038,7 +4062,7 @@
       <c r="R122" s="22"/>
       <c r="S122" s="23"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="22"/>
       <c r="B123" s="23"/>
       <c r="C123" s="22"/>
@@ -4059,7 +4083,7 @@
       <c r="R123" s="22"/>
       <c r="S123" s="23"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="22"/>
       <c r="B124" s="23"/>
       <c r="C124" s="22"/>
@@ -4080,7 +4104,7 @@
       <c r="R124" s="22"/>
       <c r="S124" s="23"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="22"/>
       <c r="B125" s="23"/>
       <c r="C125" s="22"/>
@@ -4101,7 +4125,7 @@
       <c r="R125" s="22"/>
       <c r="S125" s="23"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="22"/>
       <c r="B126" s="23"/>
       <c r="C126" s="22"/>
@@ -4122,7 +4146,7 @@
       <c r="R126" s="22"/>
       <c r="S126" s="23"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="22"/>
       <c r="B127" s="23"/>
       <c r="C127" s="22"/>
@@ -4143,7 +4167,7 @@
       <c r="R127" s="22"/>
       <c r="S127" s="23"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="22"/>
       <c r="B128" s="23"/>
       <c r="C128" s="22"/>
@@ -4164,7 +4188,7 @@
       <c r="R128" s="22"/>
       <c r="S128" s="23"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="22"/>
       <c r="B129" s="23"/>
       <c r="C129" s="22"/>
@@ -4185,7 +4209,7 @@
       <c r="R129" s="22"/>
       <c r="S129" s="23"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="22"/>
       <c r="B130" s="23"/>
       <c r="C130" s="22"/>
@@ -4206,7 +4230,7 @@
       <c r="R130" s="22"/>
       <c r="S130" s="23"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="22"/>
       <c r="B131" s="23"/>
       <c r="C131" s="22"/>
@@ -4227,7 +4251,7 @@
       <c r="R131" s="22"/>
       <c r="S131" s="23"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="22"/>
       <c r="B132" s="23"/>
       <c r="C132" s="22"/>
@@ -4248,7 +4272,7 @@
       <c r="R132" s="22"/>
       <c r="S132" s="23"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="22"/>
       <c r="B133" s="23"/>
       <c r="C133" s="22"/>
@@ -4269,7 +4293,7 @@
       <c r="R133" s="22"/>
       <c r="S133" s="23"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="22"/>
       <c r="B134" s="23"/>
       <c r="C134" s="22"/>
@@ -4290,7 +4314,7 @@
       <c r="R134" s="22"/>
       <c r="S134" s="23"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="22"/>
       <c r="B135" s="23"/>
       <c r="C135" s="22"/>
@@ -4311,7 +4335,7 @@
       <c r="R135" s="22"/>
       <c r="S135" s="23"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="22"/>
       <c r="B136" s="23"/>
       <c r="C136" s="22"/>
@@ -4332,7 +4356,7 @@
       <c r="R136" s="22"/>
       <c r="S136" s="23"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="22"/>
       <c r="B137" s="23"/>
       <c r="C137" s="22"/>
@@ -4353,7 +4377,7 @@
       <c r="R137" s="22"/>
       <c r="S137" s="23"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="22"/>
       <c r="B138" s="23"/>
       <c r="C138" s="22"/>
@@ -4374,7 +4398,7 @@
       <c r="R138" s="22"/>
       <c r="S138" s="23"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="22"/>
       <c r="B139" s="23"/>
       <c r="C139" s="22"/>
@@ -4395,7 +4419,7 @@
       <c r="R139" s="22"/>
       <c r="S139" s="23"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="22"/>
       <c r="B140" s="23"/>
       <c r="C140" s="22"/>
@@ -4416,7 +4440,7 @@
       <c r="R140" s="22"/>
       <c r="S140" s="23"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="22"/>
       <c r="B141" s="23"/>
       <c r="C141" s="22"/>
@@ -4437,7 +4461,7 @@
       <c r="R141" s="22"/>
       <c r="S141" s="23"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="22"/>
       <c r="B142" s="23"/>
       <c r="C142" s="22"/>
@@ -4458,7 +4482,7 @@
       <c r="R142" s="22"/>
       <c r="S142" s="23"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="22"/>
       <c r="B143" s="23"/>
       <c r="C143" s="22"/>
@@ -4479,7 +4503,7 @@
       <c r="R143" s="22"/>
       <c r="S143" s="23"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="22"/>
       <c r="B144" s="23"/>
       <c r="C144" s="22"/>
@@ -4500,7 +4524,7 @@
       <c r="R144" s="22"/>
       <c r="S144" s="23"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="22"/>
       <c r="B145" s="23"/>
       <c r="C145" s="22"/>
@@ -4521,7 +4545,7 @@
       <c r="R145" s="22"/>
       <c r="S145" s="23"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="22"/>
       <c r="B146" s="23"/>
       <c r="C146" s="22"/>
@@ -4542,7 +4566,7 @@
       <c r="R146" s="22"/>
       <c r="S146" s="23"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="22"/>
       <c r="B147" s="23"/>
       <c r="C147" s="22"/>
@@ -4563,7 +4587,7 @@
       <c r="R147" s="22"/>
       <c r="S147" s="23"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="22"/>
       <c r="B148" s="23"/>
       <c r="C148" s="22"/>
@@ -4584,7 +4608,7 @@
       <c r="R148" s="22"/>
       <c r="S148" s="23"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="22"/>
       <c r="B149" s="23"/>
       <c r="C149" s="22"/>
@@ -4605,7 +4629,7 @@
       <c r="R149" s="22"/>
       <c r="S149" s="23"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="22"/>
       <c r="B150" s="23"/>
       <c r="C150" s="22"/>
@@ -4626,7 +4650,7 @@
       <c r="R150" s="22"/>
       <c r="S150" s="23"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="22"/>
       <c r="B151" s="23"/>
       <c r="C151" s="22"/>
@@ -4647,7 +4671,7 @@
       <c r="R151" s="22"/>
       <c r="S151" s="23"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="22"/>
       <c r="B152" s="23"/>
       <c r="C152" s="22"/>
@@ -4668,7 +4692,7 @@
       <c r="R152" s="22"/>
       <c r="S152" s="23"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="22"/>
       <c r="B153" s="23"/>
       <c r="C153" s="22"/>
@@ -4689,7 +4713,7 @@
       <c r="R153" s="22"/>
       <c r="S153" s="23"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="22"/>
       <c r="B154" s="23"/>
       <c r="C154" s="22"/>
@@ -4710,7 +4734,7 @@
       <c r="R154" s="22"/>
       <c r="S154" s="23"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="22"/>
       <c r="B155" s="23"/>
       <c r="C155" s="22"/>
@@ -4731,7 +4755,7 @@
       <c r="R155" s="22"/>
       <c r="S155" s="23"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="22"/>
@@ -4752,7 +4776,7 @@
       <c r="R156" s="22"/>
       <c r="S156" s="23"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="22"/>
@@ -4773,7 +4797,7 @@
       <c r="R157" s="22"/>
       <c r="S157" s="23"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="22"/>
@@ -4794,7 +4818,7 @@
       <c r="R158" s="22"/>
       <c r="S158" s="23"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="22"/>
       <c r="B159" s="23"/>
       <c r="C159" s="22"/>
@@ -4815,7 +4839,7 @@
       <c r="R159" s="22"/>
       <c r="S159" s="23"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="22"/>
       <c r="B160" s="23"/>
       <c r="C160" s="22"/>
@@ -4836,7 +4860,7 @@
       <c r="R160" s="22"/>
       <c r="S160" s="23"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="22"/>
       <c r="B161" s="23"/>
       <c r="C161" s="22"/>
@@ -4857,7 +4881,7 @@
       <c r="R161" s="22"/>
       <c r="S161" s="23"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="22"/>
       <c r="B162" s="23"/>
       <c r="C162" s="22"/>
@@ -4878,7 +4902,7 @@
       <c r="R162" s="22"/>
       <c r="S162" s="23"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="22"/>
       <c r="B163" s="23"/>
       <c r="C163" s="22"/>
@@ -4899,7 +4923,7 @@
       <c r="R163" s="22"/>
       <c r="S163" s="23"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="22"/>
       <c r="B164" s="23"/>
       <c r="C164" s="22"/>
@@ -4920,7 +4944,7 @@
       <c r="R164" s="22"/>
       <c r="S164" s="23"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="22"/>
       <c r="B165" s="23"/>
       <c r="C165" s="22"/>
@@ -4941,7 +4965,7 @@
       <c r="R165" s="22"/>
       <c r="S165" s="23"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="22"/>
       <c r="B166" s="23"/>
       <c r="C166" s="22"/>
@@ -4962,7 +4986,7 @@
       <c r="R166" s="22"/>
       <c r="S166" s="23"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="22"/>
@@ -4983,7 +5007,7 @@
       <c r="R167" s="22"/>
       <c r="S167" s="23"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="22"/>
       <c r="B168" s="23"/>
       <c r="C168" s="22"/>
@@ -5004,7 +5028,7 @@
       <c r="R168" s="22"/>
       <c r="S168" s="23"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="22"/>
       <c r="B169" s="23"/>
       <c r="C169" s="22"/>
@@ -5025,7 +5049,7 @@
       <c r="R169" s="22"/>
       <c r="S169" s="23"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="22"/>
       <c r="B170" s="23"/>
       <c r="C170" s="22"/>
@@ -5046,7 +5070,7 @@
       <c r="R170" s="22"/>
       <c r="S170" s="23"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="22"/>
       <c r="B171" s="23"/>
       <c r="C171" s="22"/>
@@ -5067,7 +5091,7 @@
       <c r="R171" s="22"/>
       <c r="S171" s="23"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="22"/>
       <c r="B172" s="23"/>
       <c r="C172" s="22"/>
@@ -5088,7 +5112,7 @@
       <c r="R172" s="22"/>
       <c r="S172" s="23"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="22"/>
       <c r="B173" s="23"/>
       <c r="C173" s="22"/>
@@ -5109,7 +5133,7 @@
       <c r="R173" s="22"/>
       <c r="S173" s="23"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="22"/>
       <c r="B174" s="23"/>
       <c r="C174" s="22"/>
@@ -5130,7 +5154,7 @@
       <c r="R174" s="22"/>
       <c r="S174" s="23"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="22"/>
       <c r="B175" s="23"/>
       <c r="C175" s="22"/>
@@ -5151,7 +5175,7 @@
       <c r="R175" s="22"/>
       <c r="S175" s="23"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="22"/>
       <c r="B176" s="23"/>
       <c r="C176" s="22"/>
@@ -5172,7 +5196,7 @@
       <c r="R176" s="22"/>
       <c r="S176" s="23"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="22"/>
       <c r="B177" s="23"/>
       <c r="C177" s="22"/>
@@ -5193,7 +5217,7 @@
       <c r="R177" s="22"/>
       <c r="S177" s="23"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="22"/>
       <c r="B178" s="23"/>
       <c r="C178" s="22"/>
@@ -5211,7 +5235,7 @@
       <c r="O178" s="23"/>
       <c r="S178" s="23"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="22"/>
       <c r="B179" s="23"/>
       <c r="C179" s="22"/>
@@ -5229,7 +5253,7 @@
       <c r="O179" s="23"/>
       <c r="S179" s="23"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="22"/>
       <c r="B180" s="23"/>
       <c r="C180" s="22"/>
@@ -5247,7 +5271,7 @@
       <c r="O180" s="23"/>
       <c r="S180" s="23"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="22"/>
       <c r="B181" s="23"/>
       <c r="C181" s="22"/>
@@ -5265,7 +5289,7 @@
       <c r="O181" s="23"/>
       <c r="S181" s="23"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="22"/>
       <c r="B182" s="23"/>
       <c r="C182" s="22"/>
@@ -5283,7 +5307,7 @@
       <c r="O182" s="23"/>
       <c r="S182" s="23"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="22"/>
       <c r="B183" s="23"/>
       <c r="C183" s="22"/>
@@ -5301,7 +5325,7 @@
       <c r="O183" s="23"/>
       <c r="S183" s="23"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="22"/>
       <c r="B184" s="23"/>
       <c r="C184" s="22"/>
@@ -5319,7 +5343,7 @@
       <c r="O184" s="23"/>
       <c r="S184" s="23"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="22"/>
       <c r="B185" s="23"/>
       <c r="C185" s="22"/>
@@ -5337,7 +5361,7 @@
       <c r="O185" s="23"/>
       <c r="S185" s="23"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="22"/>
       <c r="B186" s="23"/>
       <c r="C186" s="22"/>
@@ -5355,7 +5379,7 @@
       <c r="O186" s="23"/>
       <c r="S186" s="23"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="22"/>
@@ -5373,7 +5397,7 @@
       <c r="O187" s="23"/>
       <c r="S187" s="23"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="22"/>
       <c r="B188" s="23"/>
       <c r="C188" s="22"/>
@@ -5391,7 +5415,7 @@
       <c r="O188" s="23"/>
       <c r="S188" s="23"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="22"/>
       <c r="B189" s="23"/>
       <c r="C189" s="22"/>
@@ -5409,7 +5433,7 @@
       <c r="O189" s="23"/>
       <c r="S189" s="23"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="22"/>
       <c r="B190" s="23"/>
       <c r="C190" s="22"/>
@@ -5427,7 +5451,7 @@
       <c r="O190" s="23"/>
       <c r="S190" s="23"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="22"/>
       <c r="B191" s="23"/>
       <c r="C191" s="22"/>
@@ -5445,7 +5469,7 @@
       <c r="O191" s="23"/>
       <c r="S191" s="23"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="22"/>
       <c r="B192" s="23"/>
       <c r="C192" s="22"/>
@@ -5463,7 +5487,7 @@
       <c r="O192" s="23"/>
       <c r="S192" s="23"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="22"/>
       <c r="B193" s="23"/>
       <c r="C193" s="22"/>
@@ -5481,7 +5505,7 @@
       <c r="O193" s="23"/>
       <c r="S193" s="23"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="22"/>
       <c r="B194" s="23"/>
       <c r="C194" s="22"/>
@@ -5499,7 +5523,7 @@
       <c r="O194" s="23"/>
       <c r="S194" s="23"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="22"/>
       <c r="B195" s="23"/>
       <c r="C195" s="22"/>
@@ -5517,7 +5541,7 @@
       <c r="O195" s="23"/>
       <c r="S195" s="23"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="22"/>
       <c r="B196" s="23"/>
       <c r="C196" s="22"/>
@@ -5535,7 +5559,7 @@
       <c r="O196" s="23"/>
       <c r="S196" s="23"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="22"/>
       <c r="B197" s="23"/>
       <c r="C197" s="22"/>
@@ -5553,7 +5577,7 @@
       <c r="O197" s="23"/>
       <c r="S197" s="23"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="22"/>
       <c r="B198" s="23"/>
       <c r="C198" s="22"/>
@@ -5571,7 +5595,7 @@
       <c r="O198" s="23"/>
       <c r="S198" s="23"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="22"/>
       <c r="B199" s="23"/>
       <c r="C199" s="22"/>
@@ -5589,7 +5613,7 @@
       <c r="O199" s="23"/>
       <c r="S199" s="23"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="22"/>
       <c r="B200" s="23"/>
       <c r="C200" s="22"/>
@@ -5607,7 +5631,7 @@
       <c r="O200" s="23"/>
       <c r="S200" s="23"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="22"/>
       <c r="B201" s="23"/>
       <c r="C201" s="22"/>
@@ -5625,7 +5649,7 @@
       <c r="O201" s="23"/>
       <c r="S201" s="23"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="22"/>
       <c r="B202" s="23"/>
       <c r="C202" s="22"/>
@@ -5643,7 +5667,7 @@
       <c r="O202" s="23"/>
       <c r="S202" s="23"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="22"/>
       <c r="B203" s="23"/>
       <c r="C203" s="22"/>
@@ -5661,7 +5685,7 @@
       <c r="O203" s="23"/>
       <c r="S203" s="23"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="22"/>
       <c r="B204" s="23"/>
       <c r="C204" s="22"/>
@@ -5679,7 +5703,7 @@
       <c r="O204" s="23"/>
       <c r="S204" s="23"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="22"/>
       <c r="B205" s="23"/>
       <c r="C205" s="22"/>
@@ -5697,7 +5721,7 @@
       <c r="O205" s="23"/>
       <c r="S205" s="23"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="22"/>
       <c r="B206" s="23"/>
       <c r="C206" s="22"/>
@@ -5715,7 +5739,7 @@
       <c r="O206" s="23"/>
       <c r="S206" s="23"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="22"/>
       <c r="B207" s="23"/>
       <c r="C207" s="22"/>
@@ -5733,7 +5757,7 @@
       <c r="O207" s="23"/>
       <c r="S207" s="23"/>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19">
       <c r="A208" s="22"/>
       <c r="B208" s="23"/>
       <c r="C208" s="22"/>
@@ -5751,7 +5775,7 @@
       <c r="O208" s="23"/>
       <c r="S208" s="23"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19">
       <c r="A209" s="22"/>
       <c r="B209" s="23"/>
       <c r="C209" s="22"/>
@@ -5769,7 +5793,7 @@
       <c r="O209" s="23"/>
       <c r="S209" s="23"/>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19">
       <c r="A210" s="22"/>
       <c r="B210" s="23"/>
       <c r="C210" s="22"/>
@@ -5787,7 +5811,7 @@
       <c r="O210" s="23"/>
       <c r="S210" s="23"/>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19">
       <c r="A211" s="22"/>
       <c r="B211" s="23"/>
       <c r="C211" s="22"/>
@@ -5805,7 +5829,7 @@
       <c r="O211" s="23"/>
       <c r="S211" s="23"/>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19">
       <c r="A212" s="22"/>
       <c r="B212" s="23"/>
       <c r="C212" s="22"/>
@@ -5831,14 +5855,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5849,7 +5873,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -5875,7 +5899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5885,7 +5909,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5895,7 +5919,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -5905,7 +5929,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -5915,7 +5939,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5925,7 +5949,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -5935,7 +5959,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -5945,7 +5969,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -5955,7 +5979,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -5965,7 +5989,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -5975,7 +5999,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -5985,7 +6009,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5995,7 +6019,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6005,7 +6029,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6015,7 +6039,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6025,7 +6049,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6035,7 +6059,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6045,7 +6069,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
